--- a/data/sklearn/Blobs.xlsx
+++ b/data/sklearn/Blobs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,16 +446,16 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Label</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3528918686595768</v>
+        <v>4.053951981379509</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1231192404465836</v>
+        <v>-4.320979764348208</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7279489280222975</v>
+        <v>7.442350887800261</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9402022889775582</v>
+        <v>-2.009216663445351</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.756076695381993</v>
+        <v>10.66549625137018</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7915273077518804</v>
+        <v>-2.332450347814635</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.7918819836279648</v>
+        <v>2.67773299514687</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7463680670514542</v>
+        <v>-2.430630873109344</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.029029936941046</v>
+        <v>1.934282277767561</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.317424544947776</v>
+        <v>-6.917514168813471</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.8440327624796694</v>
+        <v>2.514242088278264</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7009544757501894</v>
+        <v>-2.529364381032017</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.7953419324654036</v>
+        <v>2.66688617395633</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.331653186687081</v>
+        <v>-6.94844860213272</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.7469618913885356</v>
+        <v>2.818555946952233</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9987229382899886</v>
+        <v>-1.881987152918447</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.0503730682288</v>
+        <v>8.453139532560236</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4667262483093785</v>
+        <v>-3.038599037157898</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.6567047350739925</v>
+        <v>3.1015090429972</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9863718659118585</v>
+        <v>-6.197773858218294</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.38536018825654</v>
+        <v>9.503312689098774</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2640835800344719</v>
+        <v>-3.479163654936426</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.101667889842836</v>
+        <v>8.613947042783415</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3576660315951932</v>
+        <v>-3.275706419825926</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.618938444737759</v>
+        <v>10.23557252908109</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07870208116175766</v>
+        <v>-3.882200833085257</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2176241615502704</v>
+        <v>4.478011613704917</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.192373952083506</v>
+        <v>-6.645642173062379</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.087559699158609</v>
+        <v>1.750793476364158</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4911591083741155</v>
+        <v>-2.985479653430408</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.4925507237758038</v>
+        <v>3.616126250337011</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.130151100050241</v>
+        <v>-6.510363718349493</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.573219046591515</v>
+        <v>10.09224378061367</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8920243766387628</v>
+        <v>-2.113960070722807</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.115792197705031</v>
+        <v>8.658226264534791</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4180070578053846</v>
+        <v>-3.144519235137887</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -650,10 +650,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.44948154081121</v>
+        <v>9.70433093483993</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9757812880453366</v>
+        <v>-1.931864503316993</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.6094780281764606</v>
+        <v>3.249563152813107</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.452692748130156</v>
+        <v>-7.211600230450735</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -672,10 +672,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.4006691417186292</v>
+        <v>3.904171865490057</v>
       </c>
       <c r="B22" t="n">
-        <v>1.107131162855927</v>
+        <v>-1.646297263782419</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-1.388701029891748</v>
+        <v>0.8067257109108232</v>
       </c>
       <c r="B23" t="n">
-        <v>-2.003388359160836</v>
+        <v>-8.408865364449603</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.140524973606414</v>
+        <v>8.735762670520085</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2586231469500424</v>
+        <v>-3.4910351607512</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.7448433627265445</v>
+        <v>2.825197461802107</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.451149953766192</v>
+        <v>-7.208246047370454</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.493834512403444</v>
+        <v>9.843375982825725</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4603996326834996</v>
+        <v>-3.05235370698521</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.4757492538923721</v>
+        <v>3.668798283400579</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6484275108902603</v>
+        <v>-2.643563046069268</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.9089146579498979</v>
+        <v>2.310839566525992</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3924846640666621</v>
+        <v>-3.200007369685342</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.8229368621914881</v>
+        <v>2.580377013686223</v>
       </c>
       <c r="B29" t="n">
-        <v>0.278036836341536</v>
+        <v>-3.448827935988292</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.447059291716259</v>
+        <v>9.696737266827393</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4757017289952066</v>
+        <v>-3.019085480356691</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.143252828779959</v>
+        <v>8.744314403129819</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5205526754254466</v>
+        <v>-2.921575216406565</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.123287422605413</v>
+        <v>8.681723538077572</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2798675176789548</v>
+        <v>-3.44484785898595</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.5754939293694378</v>
+        <v>3.356102139486186</v>
       </c>
       <c r="B33" t="n">
-        <v>0.942181115036106</v>
+        <v>-2.004914505595004</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.4407900480465441</v>
+        <v>3.778394197267815</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1887955275142903</v>
+        <v>-3.642847109976832</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.6857326127697967</v>
+        <v>3.010507639883871</v>
       </c>
       <c r="B35" t="n">
-        <v>1.606931727468575</v>
+        <v>-0.5596828474377518</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.4531916334791365</v>
+        <v>3.739515651374022</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.567585522245377</v>
+        <v>-7.461388152927745</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.2352672734108582</v>
+        <v>4.422701061847694</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.753014830446959</v>
+        <v>-7.864529273147998</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.976841576093131</v>
+        <v>2.097891002908063</v>
       </c>
       <c r="B38" t="n">
-        <v>1.67301803231962</v>
+        <v>-0.4160048753455268</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.195734413420606</v>
+        <v>8.908842374825117</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7774400216930692</v>
+        <v>-2.363077460312075</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.6836082914574655</v>
+        <v>3.017167314494311</v>
       </c>
       <c r="B40" t="n">
-        <v>0.258231943809949</v>
+        <v>-3.491885673939544</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -881,10 +881,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.775007881831288</v>
+        <v>10.72484487297936</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8389558976294168</v>
+        <v>-2.229336039514941</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.314094773922219</v>
+        <v>9.279898054179966</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6790966521452738</v>
+        <v>-2.576885388251021</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.4136615558738742</v>
+        <v>3.863441091771534</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.690589218039459</v>
+        <v>-7.728809997913276</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.9882818236353058</v>
+        <v>2.062026218399474</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.275885952585663</v>
+        <v>-6.827205280646613</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -925,10 +925,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.61864673061111</v>
+        <v>3.220819584474238</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.506617774099319</v>
+        <v>-7.328838414575767</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.5683398050498761</v>
+        <v>6.941981749815448</v>
       </c>
       <c r="B46" t="n">
-        <v>0.038237322274655</v>
+        <v>-3.970175104172193</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.248338914470267</v>
+        <v>4.381721914496114</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.473120140168193</v>
+        <v>-5.081915326047413</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.828378641533721</v>
+        <v>10.89216037806183</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.3558148909074106</v>
+        <v>-4.826882450967614</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6872026169820853</v>
+        <v>3.005899226988426</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6650558038726182</v>
+        <v>-5.499201887845413</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.772603894387972</v>
+        <v>10.7173084546197</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3728171491449496</v>
+        <v>-3.242766435522272</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.421513200784699</v>
+        <v>9.616651146057748</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4050651222149182</v>
+        <v>-3.172656245745115</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.232785438254977</v>
+        <v>9.02499606963009</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6245809355351998</v>
+        <v>-2.695407790545178</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.1182724324110065</v>
+        <v>4.789475884298671</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.16548590829385</v>
+        <v>-6.587184984179869</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.490564920048367</v>
+        <v>9.833125922692544</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5449385221763572</v>
+        <v>-2.868558044137367</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.199131041686074</v>
+        <v>8.919490688189638</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8232591921694539</v>
+        <v>-2.263462184320581</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.5103889884232276</v>
+        <v>3.560203901172053</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.513200615655039</v>
+        <v>-7.343150144176356</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.2174732772382665</v>
+        <v>4.478484630859117</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.471496627649982</v>
+        <v>-7.252481670001101</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.5245053147460919</v>
+        <v>3.515949701273314</v>
       </c>
       <c r="B58" t="n">
-        <v>1.458620604209882</v>
+        <v>-0.8821254696506038</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.2759728044473596</v>
+        <v>4.29509061517249</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.089969507988153</v>
+        <v>-6.423005079128699</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.3402120908283351</v>
+        <v>4.093702650922086</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.576481760652421</v>
+        <v>-7.480729429406344</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.533627681883764</v>
+        <v>9.968126207247369</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.1378412552958934</v>
+        <v>-4.352986838180344</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.06995534376298954</v>
+        <v>4.940948303584638</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.709803631138267</v>
+        <v>-7.770583976882161</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9070366474850106</v>
+        <v>8.003784759137975</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04033564741658881</v>
+        <v>-3.965613143840734</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.930242358644408</v>
+        <v>2.243977954777433</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.749645812108999</v>
+        <v>-7.857204703801435</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.536666444392367</v>
+        <v>3.47782497604016</v>
       </c>
       <c r="B65" t="n">
-        <v>1.721492104422646</v>
+        <v>-0.3106175883045426</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1156,10 +1156,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.9252606704341104</v>
+        <v>2.259595376821199</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9367212998054234</v>
+        <v>-2.016784668136408</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.2451866667436562</v>
+        <v>4.391604103235109</v>
       </c>
       <c r="B67" t="n">
-        <v>1.109282166241971</v>
+        <v>-1.641620775890308</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.502885675261222</v>
+        <v>9.871751068613829</v>
       </c>
       <c r="B68" t="n">
-        <v>1.393552003459034</v>
+        <v>-1.023590855313072</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.5068500666646034</v>
+        <v>3.571298299767705</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.4876808942348658</v>
+        <v>-5.113571803454473</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.2717335262683784</v>
+        <v>4.308380607176651</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4615809884725857</v>
+        <v>-3.049785326070619</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.5629216536021284</v>
+        <v>3.395515793737534</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.310764029331043</v>
+        <v>-6.903033568346283</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-1.064738424647268</v>
+        <v>1.822337390911745</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.043155355840989</v>
+        <v>-6.321226617450719</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.83792701167612</v>
+        <v>2.533383408081456</v>
       </c>
       <c r="B73" t="n">
-        <v>1.772494090641111</v>
+        <v>-0.1997343732562635</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.4170664322078963</v>
+        <v>3.852766920994379</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.5226850086308936</v>
+        <v>-5.18967410910829</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.383384105062754</v>
+        <v>9.497117735916609</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2774792371028973</v>
+        <v>-3.450040210271569</v>
       </c>
       <c r="C75" t="n">
         <v>2</v>
@@ -1266,10 +1266,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.232045304763595</v>
+        <v>9.022675776465265</v>
       </c>
       <c r="B76" t="n">
-        <v>0.428550590616291</v>
+        <v>-3.121596582458587</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
@@ -1277,10 +1277,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8442570110625256</v>
+        <v>7.806972747551729</v>
       </c>
       <c r="B77" t="n">
-        <v>1.100370802840189</v>
+        <v>-1.66099493555971</v>
       </c>
       <c r="C77" t="n">
         <v>2</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.7923119188500595</v>
+        <v>2.676385162939898</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8002125837055581</v>
+        <v>-2.313567723965436</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.5148049694545757</v>
+        <v>3.546359951773279</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.35670026984038</v>
+        <v>-7.002903365830018</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.876870312539711</v>
+        <v>2.411297492686975</v>
       </c>
       <c r="B80" t="n">
-        <v>1.367856962701377</v>
+        <v>-1.079454341056575</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.5940871662525308</v>
+        <v>3.297812978200912</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.396882947315617</v>
+        <v>-7.090264364843214</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.789524203505694</v>
+        <v>10.77035304461557</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5723562013996176</v>
+        <v>-2.808949376968698</v>
       </c>
       <c r="C82" t="n">
         <v>2</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.5594028687456246</v>
+        <v>3.406547063834213</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.14314674242174</v>
+        <v>-6.538617492655399</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.9849353283160623</v>
+        <v>2.072517366693356</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4287519712405041</v>
+        <v>-3.121158761645775</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.6037145761028224</v>
+        <v>3.267631377813011</v>
       </c>
       <c r="B85" t="n">
-        <v>1.141308291939584</v>
+        <v>-1.571992903601561</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.528507751034109</v>
+        <v>9.952075399260496</v>
       </c>
       <c r="B86" t="n">
-        <v>0.481913488317773</v>
+        <v>-3.005580519160829</v>
       </c>
       <c r="C86" t="n">
         <v>2</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.5949812430980551</v>
+        <v>3.295010077889477</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3895802144486409</v>
+        <v>-3.206321922028704</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.397659779374497</v>
+        <v>9.541871486306885</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6518737972520152</v>
+        <v>-2.636070488620004</v>
       </c>
       <c r="C88" t="n">
         <v>2</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.4905415391173146</v>
+        <v>3.622424975478143</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3495106957491297</v>
+        <v>-3.293436902998415</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.7364724136503844</v>
+        <v>7.469071723532744</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6180416003884934</v>
+        <v>-2.709624933035258</v>
       </c>
       <c r="C90" t="n">
         <v>2</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.2370395133612359</v>
+        <v>5.903366673940333</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6173459364230784</v>
+        <v>-2.711137373290977</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.7630424649230486</v>
+        <v>2.768143899270247</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.343192817880592</v>
+        <v>-6.973536868337236</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -1453,10 +1453,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.4104870073787611</v>
+        <v>3.873393192656551</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4937745146043622</v>
+        <v>-2.979793509164872</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.733275182455981</v>
+        <v>10.59401428871627</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09842649551009552</v>
+        <v>-3.839318062431586</v>
       </c>
       <c r="C94" t="n">
         <v>2</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.1889454098326811</v>
+        <v>4.567918518825184</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.979550457479935</v>
+        <v>-6.182943461322589</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -1486,10 +1486,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.343425101939085</v>
+        <v>9.371847628698628</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3701126647066318</v>
+        <v>-3.248646244365092</v>
       </c>
       <c r="C96" t="n">
         <v>2</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.455989605854077</v>
+        <v>9.7247334960144</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.5157057815360955</v>
+        <v>-5.17450059928637</v>
       </c>
       <c r="C97" t="n">
         <v>2</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.523957555362233</v>
+        <v>9.937810691557088</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2376447348094417</v>
+        <v>-3.536644243009167</v>
       </c>
       <c r="C98" t="n">
         <v>2</v>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.391173663472035</v>
+        <v>0.7989740892611374</v>
       </c>
       <c r="B99" t="n">
-        <v>1.198685889561174</v>
+        <v>-1.447248497201856</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.362712958179319</v>
+        <v>9.432314397895578</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3404781852525635</v>
+        <v>-3.313074448083943</v>
       </c>
       <c r="C100" t="n">
         <v>2</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.6078958673393108</v>
+        <v>3.254523172888994</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.02720011875040265</v>
+        <v>-4.112442384005378</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.1923789176756308</v>
+        <v>4.557154589247439</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.6911843747665138</v>
+        <v>-5.556007909730951</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.933591480758978</v>
+        <v>2.233478571570103</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.046681624739599</v>
+        <v>-6.328893064614713</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.401680396602389</v>
+        <v>9.55447598371293</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1919982852123633</v>
+        <v>-3.635884007225073</v>
       </c>
       <c r="C104" t="n">
         <v>2</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.133114870001437</v>
+        <v>8.71253224932517</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9085917961122223</v>
+        <v>-2.077940910049304</v>
       </c>
       <c r="C105" t="n">
         <v>2</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.5555746331578062</v>
+        <v>3.418548451382784</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.8924172823580969</v>
+        <v>-5.99350757242428</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.559697075178646</v>
+        <v>3.405624736735744</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.7273317330283844</v>
+        <v>-5.634595737318872</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.153727968674539</v>
+        <v>8.777153608193474</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4108916747078608</v>
+        <v>-3.159988761182894</v>
       </c>
       <c r="C108" t="n">
         <v>2</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.397883315692001</v>
+        <v>9.542572265011852</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8581584961203207</v>
+        <v>-2.187587746638029</v>
       </c>
       <c r="C109" t="n">
         <v>2</v>
@@ -1640,10 +1640,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.9125539011257726</v>
+        <v>2.299430663720705</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.71583942558044</v>
+        <v>-5.609610357481056</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -1651,10 +1651,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.261169421391127</v>
+        <v>9.113978885335834</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8560493795324439</v>
+        <v>-2.19217316860912</v>
       </c>
       <c r="C111" t="n">
         <v>2</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.270223890594538</v>
+        <v>9.142364336404341</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.2569300642807791</v>
+        <v>-4.611897343350707</v>
       </c>
       <c r="C112" t="n">
         <v>2</v>
@@ -1673,10 +1673,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.5090624478887422</v>
+        <v>3.56436256034755</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.6764353553750303</v>
+        <v>-5.52394212543126</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.84117419283985</v>
+        <v>2.523203606266137</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.2661008045464792</v>
+        <v>-4.631835413226609</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.16874113599711</v>
+        <v>8.824219373932408</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6465534250046865</v>
+        <v>-2.647637488726832</v>
       </c>
       <c r="C115" t="n">
         <v>2</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.5722639605978855</v>
+        <v>3.366227981041112</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.164366879004233</v>
+        <v>-6.584752107059467</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.552162343671243</v>
+        <v>10.02623173761259</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4341343436181582</v>
+        <v>-3.109456967302611</v>
       </c>
       <c r="C117" t="n">
         <v>2</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-0.6608531651130627</v>
+        <v>3.088503856802432</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5557483749146499</v>
+        <v>-2.845056386364941</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.6472322473884373</v>
+        <v>3.131204967700777</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1216065909767157</v>
+        <v>-3.788922309225912</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.2827407400335701</v>
+        <v>4.273873368738562</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.004586341102176</v>
+        <v>-6.237373876164033</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.8552921122225096</v>
+        <v>2.478944412179462</v>
       </c>
       <c r="B121" t="n">
-        <v>1.241100588078321</v>
+        <v>-1.355034870133699</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.6206462650268091</v>
+        <v>3.214551112513977</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9683739381428952</v>
+        <v>-1.947968793229391</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.5331349158558305</v>
+        <v>3.488896197137596</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.782449376161877</v>
+        <v>-5.754426785669549</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.6252575192311601</v>
+        <v>3.200094988400955</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.4730475498728004</v>
+        <v>-5.081757507775396</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.396388479838277</v>
+        <v>3.917591593981682</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.076312760042393</v>
+        <v>-6.393313997827603</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.6427378054650166</v>
+        <v>3.145294889310918</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4847273754329953</v>
+        <v>-2.999462858394005</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-1.171002435976002</v>
+        <v>1.489203352223028</v>
       </c>
       <c r="B127" t="n">
-        <v>0.8040825979536904</v>
+        <v>-2.305153941406509</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-0.6261603503936609</v>
+        <v>3.197264643605411</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9838001001923276</v>
+        <v>-1.914430835774754</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.431228355836541</v>
+        <v>9.647107824649476</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.05653481016042159</v>
+        <v>-4.176218819732002</v>
       </c>
       <c r="C129" t="n">
         <v>2</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.159566477036289</v>
+        <v>8.795457132087849</v>
       </c>
       <c r="B130" t="n">
-        <v>0.977539065969224</v>
+        <v>-1.928042925335566</v>
       </c>
       <c r="C130" t="n">
         <v>2</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-0.6459566025490248</v>
+        <v>3.135204070614098</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.37104538222861</v>
+        <v>-7.03409101752308</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.5251452896593494</v>
+        <v>3.513943401823038</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.180330259954989</v>
+        <v>-6.619458029987218</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.656516776355299</v>
+        <v>10.35337931260452</v>
       </c>
       <c r="B133" t="n">
-        <v>1.048273801549774</v>
+        <v>-1.774258818513434</v>
       </c>
       <c r="C133" t="n">
         <v>2</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-1.016046803856665</v>
+        <v>1.974983955646563</v>
       </c>
       <c r="B134" t="n">
-        <v>-1.849777878082339</v>
+        <v>-8.074901429513083</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.462859773746693</v>
+        <v>9.746271237230065</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4756434177636414</v>
+        <v>-3.019212254572928</v>
       </c>
       <c r="C135" t="n">
         <v>2</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1.051919657100829</v>
+        <v>1.86252378845462</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.9920851179147444</v>
+        <v>-6.210195016636467</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-0.5351704060580957</v>
+        <v>3.482515005017018</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5959457843231678</v>
+        <v>-2.75766335871429</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-1.038356065997887</v>
+        <v>1.905045182355958</v>
       </c>
       <c r="B138" t="n">
-        <v>0.7732124520124849</v>
+        <v>-2.372268602712214</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-0.8867479677818448</v>
+        <v>2.380331381560159</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.502527584848363</v>
+        <v>-7.319945950420367</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.316530124540156</v>
+        <v>9.287532795018675</v>
       </c>
       <c r="B140" t="n">
-        <v>0.992918275658721</v>
+        <v>-1.894607046819609</v>
       </c>
       <c r="C140" t="n">
         <v>2</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-0.4982419900241572</v>
+        <v>3.598284325428854</v>
       </c>
       <c r="B141" t="n">
-        <v>1.592409607663665</v>
+        <v>-0.5912553302502297</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.407712547776053</v>
+        <v>9.573386571195337</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2978278347576383</v>
+        <v>-3.405800405178161</v>
       </c>
       <c r="C142" t="n">
         <v>2</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1.787845666887318</v>
+        <v>10.76509088976394</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.3384018615625346</v>
+        <v>-4.78902485324153</v>
       </c>
       <c r="C143" t="n">
         <v>2</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.8614742303533378</v>
+        <v>2.45956368341888</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6881864618695294</v>
+        <v>-2.55712326914285</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-0.2405244418759528</v>
+        <v>4.406220018633298</v>
       </c>
       <c r="B145" t="n">
-        <v>-1.485095670049547</v>
+        <v>-7.282047293904112</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.5146807294012358</v>
+        <v>3.546749440088452</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.8192221771986095</v>
+        <v>-5.834374385902565</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2047,10 +2047,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-1.021354241897624</v>
+        <v>1.958345319032282</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9360037989813084</v>
+        <v>-2.01834458381963</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.305038157685563</v>
+        <v>9.251505872235718</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8766592254277864</v>
+        <v>-2.14736538475662</v>
       </c>
       <c r="C148" t="n">
         <v>2</v>
@@ -2069,10 +2069,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.594122495585286</v>
+        <v>10.15777537780019</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3513012722014338</v>
+        <v>-3.289544017867025</v>
       </c>
       <c r="C149" t="n">
         <v>2</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.03234075051600269</v>
+        <v>5.261643058122177</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.9621867883994386</v>
+        <v>-6.145193177550644</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.6601358658476776</v>
+        <v>3.090752565450245</v>
       </c>
       <c r="B151" t="n">
-        <v>-1.625306473396035</v>
+        <v>-7.586879042867096</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.439292269237022</v>
+        <v>9.672387917177019</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3206792203414678</v>
+        <v>-3.3561192988191</v>
       </c>
       <c r="C152" t="n">
         <v>2</v>
@@ -2113,10 +2113,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.5868286742774704</v>
+        <v>3.320568102124863</v>
       </c>
       <c r="B153" t="n">
-        <v>1.00381237370329</v>
+        <v>-1.870922231662437</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.44910711822996</v>
+        <v>9.703157132862115</v>
       </c>
       <c r="B154" t="n">
-        <v>0.5014542012527923</v>
+        <v>-2.963097133017996</v>
       </c>
       <c r="C154" t="n">
         <v>2</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-0.6760186863949237</v>
+        <v>3.040960466615354</v>
       </c>
       <c r="B155" t="n">
-        <v>0.8384703549858532</v>
+        <v>-2.230391655841935</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.216826587457988</v>
+        <v>4.480511981187691</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.3623027479170369</v>
+        <v>-4.840987675044954</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-1.275305816448914</v>
+        <v>1.162215824165807</v>
       </c>
       <c r="B157" t="n">
-        <v>1.535587411730753</v>
+        <v>-0.7147922400512741</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-1.327469275192374</v>
+        <v>0.9986851662705083</v>
       </c>
       <c r="B158" t="n">
-        <v>0.934967770366968</v>
+        <v>-2.020597009502583</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-0.8094466290954466</v>
+        <v>2.622668432746566</v>
       </c>
       <c r="B159" t="n">
-        <v>1.571079949836799</v>
+        <v>-0.6376280543553625</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.611083185766093</v>
+        <v>10.2109465610468</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.2878344961317231</v>
+        <v>-4.679086545516181</v>
       </c>
       <c r="C160" t="n">
         <v>2</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.887432650812559</v>
+        <v>11.07729267606027</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.05236382029883813</v>
+        <v>-4.167150687290942</v>
       </c>
       <c r="C161" t="n">
         <v>2</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-0.8339715522611799</v>
+        <v>2.545783637973888</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.585384753629007</v>
+        <v>-7.500085390967675</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.8944726231677201</v>
+        <v>7.964396972900035</v>
       </c>
       <c r="B163" t="n">
-        <v>0.003776689812729144</v>
+        <v>-4.045095827918282</v>
       </c>
       <c r="C163" t="n">
         <v>2</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.066377782003844</v>
+        <v>8.503313762492546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.5957737147305011</v>
+        <v>-2.75803745453019</v>
       </c>
       <c r="C164" t="n">
         <v>2</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-0.4348341589811341</v>
+        <v>3.797065705650875</v>
       </c>
       <c r="B165" t="n">
-        <v>-2.158173072090905</v>
+        <v>-8.745382192176548</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-1.131770980192131</v>
+        <v>1.612192623430643</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.484514279653397</v>
+        <v>-7.28078329536007</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.6568134948146439</v>
+        <v>3.101168084932499</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.9708604641755383</v>
+        <v>-6.164050581499986</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.9261494098480582</v>
+        <v>8.063702615022436</v>
       </c>
       <c r="B168" t="n">
-        <v>0.7018086004539499</v>
+        <v>-2.52750743191636</v>
       </c>
       <c r="C168" t="n">
         <v>2</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.1603324242781765</v>
+        <v>4.657619249274992</v>
       </c>
       <c r="B169" t="n">
-        <v>0.953760595016968</v>
+        <v>-1.979739604300663</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.8798569477051366</v>
+        <v>7.918577330538223</v>
       </c>
       <c r="B170" t="n">
-        <v>0.3246421461996408</v>
+        <v>-3.347503517498938</v>
       </c>
       <c r="C170" t="n">
         <v>2</v>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.026133487094</v>
+        <v>8.377149275288861</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.1302469277351817</v>
+        <v>-4.33647604088601</v>
       </c>
       <c r="C171" t="n">
         <v>2</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.5707275868376774</v>
+        <v>3.371044460197825</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.718057861927772</v>
+        <v>-7.788529467157195</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2333,10 +2333,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.9771908069220467</v>
+        <v>2.096796176211644</v>
       </c>
       <c r="B173" t="n">
-        <v>0.655459843436435</v>
+        <v>-2.62827407989708</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.4460730943341742</v>
+        <v>3.761832027965424</v>
       </c>
       <c r="B174" t="n">
-        <v>0.07972991672179547</v>
+        <v>-3.879966219889023</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.5813002156905095</v>
+        <v>3.337899630586556</v>
       </c>
       <c r="B175" t="n">
-        <v>0.5925809579860318</v>
+        <v>-2.764978814248563</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-0.7707127513060882</v>
+        <v>2.744097813970716</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.9182185416907676</v>
+        <v>-6.049601987548551</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -2377,10 +2377,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.9462988678148616</v>
+        <v>2.193641348053184</v>
       </c>
       <c r="B177" t="n">
-        <v>0.3751074636501651</v>
+        <v>-3.237787071880978</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-0.614915884238863</v>
+        <v>3.232515660165083</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.604022174954641</v>
+        <v>-7.540604934421211</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-0.93026383612077</v>
+        <v>2.243910623624093</v>
       </c>
       <c r="B179" t="n">
-        <v>0.9504328860852137</v>
+        <v>-1.986974363031769</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-1.130006001438484</v>
+        <v>1.617725771417908</v>
       </c>
       <c r="B180" t="n">
-        <v>0.8425626470697991</v>
+        <v>-2.221494619925709</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-0.674783217836335</v>
+        <v>3.044833618263304</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.9753873460386242</v>
+        <v>-6.173892457323657</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2432,10 +2432,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-0.3303161082085868</v>
+        <v>4.12472621775048</v>
       </c>
       <c r="B182" t="n">
-        <v>1.552840057771453</v>
+        <v>-0.6772833310278406</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2443,10 +2443,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-1.098314356537344</v>
+        <v>1.717077993554007</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.158760326830693</v>
+        <v>-6.572562924315188</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-0.9598102851800062</v>
+        <v>2.151283517034222</v>
       </c>
       <c r="B184" t="n">
-        <v>1.00617159340435</v>
+        <v>-1.865793061509372</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.060297201445597</v>
+        <v>8.484251350546939</v>
       </c>
       <c r="B185" t="n">
-        <v>1.183015872885197</v>
+        <v>-1.481316618028557</v>
       </c>
       <c r="C185" t="n">
         <v>2</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-0.676932808126803</v>
+        <v>3.038094726271222</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.034737024114859</v>
+        <v>-6.302924355983139</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-0.4351751336021881</v>
+        <v>3.795996761883538</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1290334759941863</v>
+        <v>-3.772775548097757</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-0.2901520681499688</v>
+        <v>4.250639108742248</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.261443893429796</v>
+        <v>-6.795806857372263</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.7076774991539913</v>
+        <v>2.941711172120989</v>
       </c>
       <c r="B189" t="n">
-        <v>1.684149060521165</v>
+        <v>-0.3918049512779915</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-0.6761889029355121</v>
+        <v>3.040426843586177</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.01825056120236554</v>
+        <v>-4.092985186594767</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-1.094967386811715</v>
+        <v>1.727570629095672</v>
       </c>
       <c r="B191" t="n">
-        <v>1.181693529597304</v>
+        <v>-1.484191519302617</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.2850232153219481</v>
+        <v>4.266717886825949</v>
       </c>
       <c r="B192" t="n">
-        <v>1.117090309683471</v>
+        <v>-1.624645122341383</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.3712681944524716</v>
+        <v>3.996342828938344</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.1163210865556891</v>
+        <v>-4.306199925057509</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1.338614231982336</v>
+        <v>9.356765716033578</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1778492696522048</v>
+        <v>-3.666645325585465</v>
       </c>
       <c r="C194" t="n">
         <v>2</v>
@@ -2575,10 +2575,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-1.006714387015668</v>
+        <v>2.0042407630463</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.9137112977001036</v>
+        <v>-6.039802806345077</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-1.005036117541305</v>
+        <v>2.009502080410586</v>
       </c>
       <c r="B196" t="n">
-        <v>-2.392772323533262</v>
+        <v>-9.25542349010605</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -2597,10 +2597,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-0.03001696190645332</v>
+        <v>5.066153763835906</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1194699659962134</v>
+        <v>-3.793567537083819</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.7726228492687545</v>
+        <v>2.738109722229801</v>
       </c>
       <c r="B198" t="n">
-        <v>-1.240944021946622</v>
+        <v>-6.751238168451124</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-0.680081393760982</v>
+        <v>3.028224018066668</v>
       </c>
       <c r="B199" t="n">
-        <v>1.148642501324664</v>
+        <v>-1.556047628196573</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -2630,10 +2630,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-0.5969341278714765</v>
+        <v>3.2888878509612</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.7879522729797441</v>
+        <v>-5.766390611718016</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.8498981654346189</v>
+        <v>2.495854250754661</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.1191432561683378</v>
+        <v>-4.31233559276899</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-0.5845857427402503</v>
+        <v>3.32759961573096</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.541994364723839</v>
+        <v>-7.405750519314022</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-1.373630262027688</v>
+        <v>0.8539720523759766</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.326194542615627</v>
+        <v>-6.936580985803928</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-0.4345482928031764</v>
+        <v>3.797961886335161</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.5529825719295919</v>
+        <v>-5.255543920772059</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-1.305277306119267</v>
+        <v>1.068256229806865</v>
       </c>
       <c r="B205" t="n">
-        <v>0.6724682147512711</v>
+        <v>-2.591296247581969</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1.058726247458408</v>
+        <v>8.479326463562131</v>
       </c>
       <c r="B206" t="n">
-        <v>0.6435877363676696</v>
+        <v>-2.65408518057742</v>
       </c>
       <c r="C206" t="n">
         <v>2</v>
@@ -2707,10 +2707,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-0.3219676005094017</v>
+        <v>4.150898503664378</v>
       </c>
       <c r="B207" t="n">
-        <v>0.6376232904447525</v>
+        <v>-2.667052458696389</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-0.8244933672559634</v>
+        <v>2.575497423579616</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.6622611352529969</v>
+        <v>-5.493126009933309</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-0.8059205706672022</v>
+        <v>2.633722505241718</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.441352424647766</v>
+        <v>-7.186945278346935</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-0.6154544031440615</v>
+        <v>3.230827421827797</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.9851829290532362</v>
+        <v>-6.195188995330627</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-1.286790359868498</v>
+        <v>1.126212173597541</v>
       </c>
       <c r="B211" t="n">
-        <v>0.7659767009282028</v>
+        <v>-2.387999820317692</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-0.9959611183413379</v>
+        <v>2.037951892315666</v>
       </c>
       <c r="B212" t="n">
-        <v>0.08825974089653672</v>
+        <v>-3.861421563133097</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.999809897703675</v>
+        <v>8.294625723460443</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.05851690300611355</v>
+        <v>-4.180528079891265</v>
       </c>
       <c r="C213" t="n">
         <v>2</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-0.2649093112213733</v>
+        <v>4.329774287794036</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.5470286557647256</v>
+        <v>-5.242599535358118</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -2795,10 +2795,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.594393333546121</v>
+        <v>10.15862444553813</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.1540987670482775</v>
+        <v>-4.388332229712113</v>
       </c>
       <c r="C215" t="n">
         <v>2</v>
@@ -2806,10 +2806,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-0.811145501683987</v>
+        <v>2.617342525324464</v>
       </c>
       <c r="B216" t="n">
-        <v>0.8260850729501951</v>
+        <v>-2.257318448173335</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-0.9254898526705864</v>
+        <v>2.258876898353482</v>
       </c>
       <c r="B217" t="n">
-        <v>0.930958278688729</v>
+        <v>-2.029314029386634</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.9892915436356278</v>
+        <v>8.261651043441951</v>
       </c>
       <c r="B218" t="n">
-        <v>0.4275038589837232</v>
+        <v>-3.123872277530827</v>
       </c>
       <c r="C218" t="n">
         <v>2</v>
@@ -2839,10 +2839,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.6402507293230337</v>
+        <v>3.153091787897233</v>
       </c>
       <c r="B219" t="n">
-        <v>0.9995294500313042</v>
+        <v>-1.880233718954754</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -2850,10 +2850,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-0.7058107078379278</v>
+        <v>2.947563499006951</v>
       </c>
       <c r="B220" t="n">
-        <v>-1.494090717148835</v>
+        <v>-7.30160338996687</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1.524864796381747</v>
+        <v>9.940654861103443</v>
       </c>
       <c r="B221" t="n">
-        <v>0.5087324947282804</v>
+        <v>-2.947273424169284</v>
       </c>
       <c r="C221" t="n">
         <v>2</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-1.231075794469021</v>
+        <v>1.300875429324796</v>
       </c>
       <c r="B222" t="n">
-        <v>0.1955582084675667</v>
+        <v>-3.628144392258486</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.3689250209721053</v>
+        <v>4.003688597605479</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.9769496846302136</v>
+        <v>-6.177289131431355</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -2894,10 +2894,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1.357811858807351</v>
+        <v>9.416949619101866</v>
       </c>
       <c r="B224" t="n">
-        <v>0.799798995426555</v>
+        <v>-2.314466904595102</v>
       </c>
       <c r="C224" t="n">
         <v>2</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1.580993216130166</v>
+        <v>10.11661553605069</v>
       </c>
       <c r="B225" t="n">
-        <v>0.4756432119925556</v>
+        <v>-3.019212701939026</v>
       </c>
       <c r="C225" t="n">
         <v>2</v>
@@ -2916,10 +2916,10 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-0.909662553854644</v>
+        <v>2.308494938460936</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.6183006018784792</v>
+        <v>-5.39755158946027</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-0.8192691500882382</v>
+        <v>2.591875165604499</v>
       </c>
       <c r="B227" t="n">
-        <v>0.6014359162571695</v>
+        <v>-2.74572728474898</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -2938,10 +2938,10 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.241181920932904</v>
+        <v>9.051318755460425</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.009072464663705657</v>
+        <v>-4.07303112347513</v>
       </c>
       <c r="C228" t="n">
         <v>2</v>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1.730252373077498</v>
+        <v>10.5845378847687</v>
       </c>
       <c r="B229" t="n">
-        <v>1.02657739517132</v>
+        <v>-1.821428889183464</v>
       </c>
       <c r="C229" t="n">
         <v>2</v>
@@ -2960,10 +2960,10 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-0.8093613160705548</v>
+        <v>2.622935886159811</v>
       </c>
       <c r="B230" t="n">
-        <v>1.027815662862034</v>
+        <v>-1.818736776330279</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-0.5117623400101226</v>
+        <v>3.555898490949334</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.625907291394052</v>
+        <v>-5.414089262831418</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -2982,10 +2982,10 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.096721466795241</v>
+        <v>8.598440175817789</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1555313270228367</v>
+        <v>-3.715166675742441</v>
       </c>
       <c r="C232" t="n">
         <v>2</v>
@@ -2993,10 +2993,10 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1.208825596086291</v>
+        <v>8.94988278444357</v>
       </c>
       <c r="B233" t="n">
-        <v>1.081399835326823</v>
+        <v>-1.702239640451161</v>
       </c>
       <c r="C233" t="n">
         <v>2</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-0.9336775783084402</v>
+        <v>2.23320865869918</v>
       </c>
       <c r="B234" t="n">
-        <v>-1.530440404776505</v>
+        <v>-7.380631101022905</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-1.056101506157212</v>
+        <v>1.849413834784325</v>
       </c>
       <c r="B235" t="n">
-        <v>0.7674964974511151</v>
+        <v>-2.384695636752019</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1.270199233250089</v>
+        <v>9.142287036473379</v>
       </c>
       <c r="B236" t="n">
-        <v>0.5789435954962787</v>
+        <v>-2.794627749706986</v>
       </c>
       <c r="C236" t="n">
         <v>2</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-0.8080439636750578</v>
+        <v>2.627065740834039</v>
       </c>
       <c r="B237" t="n">
-        <v>0.9625259996538237</v>
+        <v>-1.960682773000595</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-0.5906947235430609</v>
+        <v>3.308448169990629</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.5071479611414865</v>
+        <v>-5.155895076060366</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-0.7926453713384425</v>
+        <v>2.675339800801044</v>
       </c>
       <c r="B239" t="n">
-        <v>-1.114836055246178</v>
+        <v>-6.47706734045533</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3070,10 +3070,10 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1.523044152592454</v>
+        <v>9.934947205134533</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.3215474678597681</v>
+        <v>-4.752381783039382</v>
       </c>
       <c r="C240" t="n">
         <v>2</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1.010015199278355</v>
+        <v>8.326618994626278</v>
       </c>
       <c r="B241" t="n">
-        <v>0.4116029332581513</v>
+        <v>-3.158442416802325</v>
       </c>
       <c r="C241" t="n">
         <v>2</v>
@@ -3092,10 +3092,10 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-0.5016151884683299</v>
+        <v>3.587709463752219</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.985747658996218</v>
+        <v>-6.196416772449808</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3103,10 +3103,10 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-0.242572064693839</v>
+        <v>4.39980079117798</v>
       </c>
       <c r="B243" t="n">
-        <v>1.33696425699902</v>
+        <v>-1.146618049449124</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1.499933680445626</v>
+        <v>9.862496665897321</v>
       </c>
       <c r="B244" t="n">
-        <v>1.378236854781614</v>
+        <v>-1.056887459037888</v>
       </c>
       <c r="C244" t="n">
         <v>2</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-1.449550332856736</v>
+        <v>0.6159652286492379</v>
       </c>
       <c r="B245" t="n">
-        <v>2.374853674542951</v>
+        <v>1.10985319833519</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-0.7317105428606258</v>
+        <v>2.866368402618284</v>
       </c>
       <c r="B246" t="n">
-        <v>0.7369434478667279</v>
+        <v>-2.45112090013166</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>1.448950636005135</v>
+        <v>9.702666566442808</v>
       </c>
       <c r="B247" t="n">
-        <v>0.4422195070747392</v>
+        <v>-3.091879045642533</v>
       </c>
       <c r="C247" t="n">
         <v>2</v>
@@ -3158,10 +3158,10 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.9628117369765595</v>
+        <v>8.178637755822471</v>
       </c>
       <c r="B248" t="n">
-        <v>0.1539436277837345</v>
+        <v>-3.718618486332861</v>
       </c>
       <c r="C248" t="n">
         <v>2</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.9915541301379753</v>
+        <v>8.268744174691042</v>
       </c>
       <c r="B249" t="n">
-        <v>0.9324072327360871</v>
+        <v>-2.026163864164832</v>
       </c>
       <c r="C249" t="n">
         <v>2</v>
@@ -3180,10 +3180,10 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-0.9390541109108417</v>
+        <v>2.216353412999498</v>
       </c>
       <c r="B250" t="n">
-        <v>0.7698384600666403</v>
+        <v>-2.379603985159864</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -3191,10 +3191,10 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>-0.7282896689729268</v>
+        <v>2.877092725178708</v>
       </c>
       <c r="B251" t="n">
-        <v>0.5523203809379037</v>
+        <v>-2.852509174412834</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>-0.8063686285544577</v>
+        <v>2.632317859099705</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.879438667714694</v>
+        <v>-8.139386834085728</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>-0.5413971084549363</v>
+        <v>3.46299450610836</v>
       </c>
       <c r="B253" t="n">
-        <v>0.4886559127143827</v>
+        <v>-2.990921841141631</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -3224,10 +3224,10 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>-0.666407047833811</v>
+        <v>3.071092624551443</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.9987898510501005</v>
+        <v>-6.224771750234734</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-0.899555316708842</v>
+        <v>2.340180780998439</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.7319646258307109</v>
+        <v>-5.644668091103203</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-0.5720491950751591</v>
+        <v>3.366901263604629</v>
       </c>
       <c r="B256" t="n">
-        <v>-1.090207771086593</v>
+        <v>-6.423523085981789</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3257,10 +3257,10 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>-0.1207362114246522</v>
+        <v>4.781752021412363</v>
       </c>
       <c r="B257" t="n">
-        <v>0.6041255094107419</v>
+        <v>-2.739879850988998</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>-1.020735890516256</v>
+        <v>1.960283829450138</v>
       </c>
       <c r="B258" t="n">
-        <v>-1.785553908962848</v>
+        <v>-7.935272354115381</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1.390279960719097</v>
+        <v>9.518736007392407</v>
       </c>
       <c r="B259" t="n">
-        <v>0.6563292569384283</v>
+        <v>-2.626383891466095</v>
       </c>
       <c r="C259" t="n">
         <v>2</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.819409469631646</v>
+        <v>7.729076555559248</v>
       </c>
       <c r="B260" t="n">
-        <v>0.8792636844656888</v>
+        <v>-2.141703040738347</v>
       </c>
       <c r="C260" t="n">
         <v>2</v>
@@ -3301,10 +3301,10 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1.156808848022292</v>
+        <v>8.786812059507291</v>
       </c>
       <c r="B261" t="n">
-        <v>0.4934389483945419</v>
+        <v>-2.980523062324764</v>
       </c>
       <c r="C261" t="n">
         <v>2</v>
@@ -3312,10 +3312,10 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-0.2923487740462969</v>
+        <v>4.2437525109383</v>
       </c>
       <c r="B262" t="n">
-        <v>-1.513158836100096</v>
+        <v>-7.343059311412403</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3323,10 +3323,10 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>-0.3046089877775299</v>
+        <v>4.205317160489901</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.7628765778407958</v>
+        <v>-5.711873642816705</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-1.013415282753059</v>
+        <v>1.983233684244018</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.8208395619827773</v>
+        <v>-5.837890735718246</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-1.096151132596246</v>
+        <v>1.723859626574211</v>
       </c>
       <c r="B265" t="n">
-        <v>0.80830160528008</v>
+        <v>-2.295981414386513</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1.744553033865105</v>
+        <v>10.62936996690566</v>
       </c>
       <c r="B266" t="n">
-        <v>0.9148117598745488</v>
+        <v>-2.064418111613645</v>
       </c>
       <c r="C266" t="n">
         <v>2</v>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1.419097868128265</v>
+        <v>9.609079160843248</v>
       </c>
       <c r="B267" t="n">
-        <v>0.5062481709098436</v>
+        <v>-2.952674582685529</v>
       </c>
       <c r="C267" t="n">
         <v>2</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1.25574067143562</v>
+        <v>9.096959940021279</v>
       </c>
       <c r="B268" t="n">
-        <v>1.046700945626886</v>
+        <v>-1.777678358309208</v>
       </c>
       <c r="C268" t="n">
         <v>2</v>
@@ -3389,10 +3389,10 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.09049547956967914</v>
+        <v>5.443956143392098</v>
       </c>
       <c r="B269" t="n">
-        <v>-1.759919451589161</v>
+        <v>-7.879540582465605</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-0.3958570237957725</v>
+        <v>3.919257690486145</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.9211555714815172</v>
+        <v>-6.055987372315645</v>
       </c>
       <c r="C270" t="n">
         <v>1</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1.233406596749151</v>
+        <v>9.026943380250518</v>
       </c>
       <c r="B271" t="n">
-        <v>0.3442449220158015</v>
+        <v>-3.304885200693472</v>
       </c>
       <c r="C271" t="n">
         <v>2</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>-0.4767543870889439</v>
+        <v>3.665647225229453</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.05747740400142098</v>
+        <v>-4.178268109246473</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1.060968804647448</v>
+        <v>8.486356803599495</v>
       </c>
       <c r="B273" t="n">
-        <v>0.4061927685652286</v>
+        <v>-3.170204634307391</v>
       </c>
       <c r="C273" t="n">
         <v>2</v>
@@ -3444,10 +3444,10 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>-1.172293105434215</v>
+        <v>1.485157147643975</v>
       </c>
       <c r="B274" t="n">
-        <v>-1.355330004243671</v>
+        <v>-6.999924276855281</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -3455,10 +3455,10 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>-0.6499067878111335</v>
+        <v>3.122820375010287</v>
       </c>
       <c r="B275" t="n">
-        <v>-2.084842796057959</v>
+        <v>-8.585955131197361</v>
       </c>
       <c r="C275" t="n">
         <v>1</v>
@@ -3466,10 +3466,10 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>-0.3092126123223378</v>
+        <v>4.190884955098426</v>
       </c>
       <c r="B276" t="n">
-        <v>0.3456076662937985</v>
+        <v>-3.301922463787782</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-0.2268838025205052</v>
+        <v>4.448982956169308</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.036294071431101</v>
+        <v>-6.306309526350185</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-0.3055789474927779</v>
+        <v>4.202276369978932</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.867591956758012</v>
+        <v>-8.113630946991492</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>-0.7572633206726953</v>
+        <v>2.786261318707097</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.8177265293943925</v>
+        <v>-5.83112270397</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -3510,10 +3510,10 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>-1.020922461061452</v>
+        <v>1.959698937176223</v>
       </c>
       <c r="B280" t="n">
-        <v>-1.259246856665425</v>
+        <v>-6.791030288495724</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-0.6168878229553713</v>
+        <v>3.226333699777339</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.4236455137538035</v>
+        <v>-4.974352737864251</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-1.054810288367726</v>
+        <v>1.853461758363149</v>
       </c>
       <c r="B282" t="n">
-        <v>0.9747773327012784</v>
+        <v>-1.934047198630803</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1.352080859655299</v>
+        <v>9.398983132900453</v>
       </c>
       <c r="B283" t="n">
-        <v>0.2955958644355814</v>
+        <v>-3.41065292296329</v>
       </c>
       <c r="C283" t="n">
         <v>2</v>
@@ -3554,10 +3554,10 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1.344693568242654</v>
+        <v>9.375824227147762</v>
       </c>
       <c r="B284" t="n">
-        <v>0.9163092026747492</v>
+        <v>-2.061162527187464</v>
       </c>
       <c r="C284" t="n">
         <v>2</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>-0.2308189279328235</v>
+        <v>4.436646472679175</v>
       </c>
       <c r="B285" t="n">
-        <v>-1.020267668318985</v>
+        <v>-6.271466587192498</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-0.8972100972368968</v>
+        <v>2.347532963779151</v>
       </c>
       <c r="B286" t="n">
-        <v>-1.689400445713394</v>
+        <v>-7.726225492735184</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-0.3486531675121238</v>
+        <v>4.067240164409577</v>
       </c>
       <c r="B287" t="n">
-        <v>0.7186574583319053</v>
+        <v>-2.490876397128878</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -3598,10 +3598,10 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>1.461415109492842</v>
+        <v>9.741742264237075</v>
       </c>
       <c r="B288" t="n">
-        <v>0.6562594763678923</v>
+        <v>-2.626535601126495</v>
       </c>
       <c r="C288" t="n">
         <v>2</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-0.9489908846740381</v>
+        <v>2.185201967332449</v>
       </c>
       <c r="B289" t="n">
-        <v>0.9347016239254559</v>
+        <v>-2.021175637420761</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -3620,10 +3620,10 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-1.652570764166074</v>
+        <v>-0.02049687524385346</v>
       </c>
       <c r="B290" t="n">
-        <v>1.511049584561007</v>
+        <v>-0.7681398323435786</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -3631,10 +3631,10 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-0.5105463992880538</v>
+        <v>3.559710423498122</v>
       </c>
       <c r="B291" t="n">
-        <v>-1.600540509489169</v>
+        <v>-7.533035459403504</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -3642,10 +3642,10 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1.096803455043599</v>
+        <v>8.598697206170391</v>
       </c>
       <c r="B292" t="n">
-        <v>1.211589936739206</v>
+        <v>-1.419193859641155</v>
       </c>
       <c r="C292" t="n">
         <v>2</v>
@@ -3653,10 +3653,10 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>1.268844332978755</v>
+        <v>9.138039470493457</v>
       </c>
       <c r="B293" t="n">
-        <v>0.7544578328341142</v>
+        <v>-2.413042945550473</v>
       </c>
       <c r="C293" t="n">
         <v>2</v>
@@ -3664,10 +3664,10 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1.284667311492321</v>
+        <v>9.18764396660082</v>
       </c>
       <c r="B294" t="n">
-        <v>0.3492642168219318</v>
+        <v>-3.293972771852076</v>
       </c>
       <c r="C294" t="n">
         <v>2</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>-0.3328557581448545</v>
+        <v>4.116764502118391</v>
       </c>
       <c r="B295" t="n">
-        <v>0.8353874123994772</v>
+        <v>-2.237094269036691</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-0.2956277983872413</v>
+        <v>4.233472881852229</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.8802937248575554</v>
+        <v>-5.967149794361981</v>
       </c>
       <c r="C296" t="n">
         <v>1</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-0.5898823746492925</v>
+        <v>3.310994855970403</v>
       </c>
       <c r="B297" t="n">
-        <v>-1.812289485207956</v>
+        <v>-7.993398063916711</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>-1.030723124378023</v>
+        <v>1.92897419310104</v>
       </c>
       <c r="B298" t="n">
-        <v>0.2559972429446795</v>
+        <v>-3.496744128187793</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.7789853031716538</v>
+        <v>7.602348177201854</v>
       </c>
       <c r="B299" t="n">
-        <v>0.1245464523067577</v>
+        <v>-3.782530768420524</v>
       </c>
       <c r="C299" t="n">
         <v>2</v>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2.167874765929082</v>
+        <v>11.95646910897469</v>
       </c>
       <c r="B300" t="n">
-        <v>0.6294320105348483</v>
+        <v>-2.684861087714875</v>
       </c>
       <c r="C300" t="n">
         <v>2</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>1.439046373588104</v>
+        <v>9.671617042733304</v>
       </c>
       <c r="B301" t="n">
-        <v>0.940427052348292</v>
+        <v>-2.008728006296485</v>
       </c>
       <c r="C301" t="n">
         <v>2</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.062543521735801</v>
+        <v>11.62625926333218</v>
       </c>
       <c r="B302" t="n">
-        <v>0.3191241470854712</v>
+        <v>-3.359500177389631</v>
       </c>
       <c r="C302" t="n">
         <v>2</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-0.06728110067452074</v>
+        <v>4.949331964142501</v>
       </c>
       <c r="B303" t="n">
-        <v>0.8688523842322368</v>
+        <v>-2.164338207097812</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>1.351924088880538</v>
+        <v>9.398491661886968</v>
       </c>
       <c r="B304" t="n">
-        <v>0.3164251873461781</v>
+        <v>-3.365367975006311</v>
       </c>
       <c r="C304" t="n">
         <v>2</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1.21744502499617</v>
+        <v>8.976904399080867</v>
       </c>
       <c r="B305" t="n">
-        <v>0.6580889241159159</v>
+        <v>-2.622558206065942</v>
       </c>
       <c r="C305" t="n">
         <v>2</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>-0.4679107797470734</v>
+        <v>3.693371631578659</v>
       </c>
       <c r="B306" t="n">
-        <v>0.2867850031894945</v>
+        <v>-3.429808581296391</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>1.431297543930316</v>
+        <v>9.647324726955539</v>
       </c>
       <c r="B307" t="n">
-        <v>0.4325037291641985</v>
+        <v>-3.113002079690681</v>
       </c>
       <c r="C307" t="n">
         <v>2</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-0.5935647619477764</v>
+        <v>3.299450697817319</v>
       </c>
       <c r="B308" t="n">
-        <v>1.007190214784361</v>
+        <v>-1.863578480825226</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -3829,10 +3829,10 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>-0.6494589664022618</v>
+        <v>3.124224279800661</v>
       </c>
       <c r="B309" t="n">
-        <v>0.4855699926615663</v>
+        <v>-2.997630927634312</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1.597087493433764</v>
+        <v>10.16707054457976</v>
       </c>
       <c r="B310" t="n">
-        <v>0.4600526985804057</v>
+        <v>-3.053107975036579</v>
       </c>
       <c r="C310" t="n">
         <v>2</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>-0.4852861990022831</v>
+        <v>3.638900286877666</v>
       </c>
       <c r="B311" t="n">
-        <v>-1.591262019068471</v>
+        <v>-7.512863130344892</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-0.9469648604165956</v>
+        <v>2.191553484039975</v>
       </c>
       <c r="B312" t="n">
-        <v>1.535635832391822</v>
+        <v>-0.7146869688849491</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>1.6535747992292</v>
+        <v>10.34415631500173</v>
       </c>
       <c r="B313" t="n">
-        <v>1.215762138465355</v>
+        <v>-1.410123092490172</v>
       </c>
       <c r="C313" t="n">
         <v>2</v>
@@ -3884,10 +3884,10 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.6646340576496599</v>
+        <v>7.243860936098372</v>
       </c>
       <c r="B314" t="n">
-        <v>0.04149201848879808</v>
+        <v>-3.963099082099566</v>
       </c>
       <c r="C314" t="n">
         <v>2</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-0.02936055102800159</v>
+        <v>5.068211589474554</v>
       </c>
       <c r="B315" t="n">
-        <v>0.419951448899794</v>
+        <v>-3.140291942205885</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1.371050404470461</v>
+        <v>9.458452006673831</v>
       </c>
       <c r="B316" t="n">
-        <v>0.83646942006339</v>
+        <v>-2.234741880485241</v>
       </c>
       <c r="C316" t="n">
         <v>2</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>1.085917237143237</v>
+        <v>8.564569285627526</v>
       </c>
       <c r="B317" t="n">
-        <v>0.7140909656387262</v>
+        <v>-2.500804390700448</v>
       </c>
       <c r="C317" t="n">
         <v>2</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>-0.532793613248339</v>
+        <v>3.48996616913119</v>
       </c>
       <c r="B318" t="n">
-        <v>-1.29333509601757</v>
+        <v>-6.865141393865433</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-0.4464100724209412</v>
+        <v>3.760775613196298</v>
       </c>
       <c r="B319" t="n">
-        <v>0.5046616337140977</v>
+        <v>-2.956123866882118</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>-0.6595598316071787</v>
+        <v>3.092558413079757</v>
       </c>
       <c r="B320" t="n">
-        <v>-1.583960503809067</v>
+        <v>-7.496988935108282</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>-0.5477830443166678</v>
+        <v>3.442974815736945</v>
       </c>
       <c r="B321" t="n">
-        <v>1.058810467733246</v>
+        <v>-1.751351094541481</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -3972,10 +3972,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1.347789114434544</v>
+        <v>9.385528658515984</v>
       </c>
       <c r="B322" t="n">
-        <v>1.378168890732968</v>
+        <v>-1.057035219405284</v>
       </c>
       <c r="C322" t="n">
         <v>2</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>-0.6064767487589164</v>
+        <v>3.258972061069984</v>
       </c>
       <c r="B323" t="n">
-        <v>-1.132639834416569</v>
+        <v>-6.515774465820336</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1.686161235430263</v>
+        <v>10.44631367723936</v>
       </c>
       <c r="B324" t="n">
-        <v>0.09266937058436119</v>
+        <v>-3.851834604796536</v>
       </c>
       <c r="C324" t="n">
         <v>2</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1.150745630216377</v>
+        <v>8.767804079196015</v>
       </c>
       <c r="B325" t="n">
-        <v>0.8936290465037452</v>
+        <v>-2.110471364362271</v>
       </c>
       <c r="C325" t="n">
         <v>2</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>1.855648965901579</v>
+        <v>10.97765191164334</v>
       </c>
       <c r="B326" t="n">
-        <v>0.1252929969733535</v>
+        <v>-3.780907708635074</v>
       </c>
       <c r="C326" t="n">
         <v>2</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-0.8935173504404901</v>
+        <v>2.359109598603674</v>
       </c>
       <c r="B327" t="n">
-        <v>-2.240687508081691</v>
+        <v>-8.924776498730855</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1.380031247336231</v>
+        <v>9.486606641693655</v>
       </c>
       <c r="B328" t="n">
-        <v>0.682524147644203</v>
+        <v>-2.569433683941765</v>
       </c>
       <c r="C328" t="n">
         <v>2</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2.053143799077729</v>
+        <v>11.59679145449942</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.3246234867426698</v>
+        <v>-4.759069343437997</v>
       </c>
       <c r="C329" t="n">
         <v>2</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.8112179212987232</v>
+        <v>7.703396331886735</v>
       </c>
       <c r="B330" t="n">
-        <v>0.8472665998619063</v>
+        <v>-2.211267774900695</v>
       </c>
       <c r="C330" t="n">
         <v>2</v>
@@ -4071,10 +4071,10 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>-0.565674971401825</v>
+        <v>3.386884236666261</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.1501468460457281</v>
+        <v>-4.37974037400472</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -4082,10 +4082,10 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>-0.7817623404622026</v>
+        <v>2.709457730132359</v>
       </c>
       <c r="B332" t="n">
-        <v>0.667689767057432</v>
+        <v>-2.601685051676056</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>-0.2687949752594547</v>
+        <v>4.317592864019348</v>
       </c>
       <c r="B333" t="n">
-        <v>-1.623521257959747</v>
+        <v>-7.582997813099269</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4104,10 +4104,10 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>-0.4601580961256628</v>
+        <v>3.717676029400483</v>
       </c>
       <c r="B334" t="n">
-        <v>0.3720602015684065</v>
+        <v>-3.244412112232794</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>-0.4845959191468392</v>
+        <v>3.641064290600037</v>
       </c>
       <c r="B335" t="n">
-        <v>0.953391366063386</v>
+        <v>-1.980542343497656</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4126,10 +4126,10 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>-0.6711748105614416</v>
+        <v>3.056145851574357</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.001613369368773293</v>
+        <v>-4.056814334111069</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>-0.8829665316679904</v>
+        <v>2.392186054359539</v>
       </c>
       <c r="B337" t="n">
-        <v>0.8193466703113494</v>
+        <v>-2.271968382505</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-0.09065720426316244</v>
+        <v>4.876048679426292</v>
       </c>
       <c r="B338" t="n">
-        <v>-1.08909786359008</v>
+        <v>-6.421110040515436</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1.353848046877521</v>
+        <v>9.404523204361116</v>
       </c>
       <c r="B339" t="n">
-        <v>0.4355305273473507</v>
+        <v>-3.106421529819298</v>
       </c>
       <c r="C339" t="n">
         <v>2</v>
@@ -4170,10 +4170,10 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-1.187001795790931</v>
+        <v>1.439045906772443</v>
       </c>
       <c r="B340" t="n">
-        <v>-2.132834192204312</v>
+        <v>-8.690293034363899</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-1.031643115845844</v>
+        <v>1.926090051335617</v>
       </c>
       <c r="B341" t="n">
-        <v>0.514344843220977</v>
+        <v>-2.935071639670619</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>-0.05562812546857803</v>
+        <v>4.985863642596517</v>
       </c>
       <c r="B342" t="n">
-        <v>0.5187259193227296</v>
+        <v>-2.92554675957178</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>-0.5583653494051756</v>
+        <v>3.409799651457997</v>
       </c>
       <c r="B343" t="n">
-        <v>1.092189610634472</v>
+        <v>-1.678781632940711</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>-0.5568633885256115</v>
+        <v>3.414508247411652</v>
       </c>
       <c r="B344" t="n">
-        <v>-1.659254147553228</v>
+        <v>-7.660684546006465</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -4225,10 +4225,10 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>-0.1028082673048232</v>
+        <v>4.83795551265408</v>
       </c>
       <c r="B345" t="n">
-        <v>-1.119440115448194</v>
+        <v>-6.487077009398194</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -4236,10 +4236,10 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>-0.9433318788626605</v>
+        <v>2.202942756874783</v>
       </c>
       <c r="B346" t="n">
-        <v>-1.014351494087037</v>
+        <v>-6.258604256364553</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -4247,10 +4247,10 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-1.068031838300992</v>
+        <v>1.812012651822577</v>
       </c>
       <c r="B347" t="n">
-        <v>1.34444717069018</v>
+        <v>-1.130349476604715</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -4258,10 +4258,10 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1.63111942760172</v>
+        <v>10.27375949347222</v>
       </c>
       <c r="B348" t="n">
-        <v>0.7055497256273111</v>
+        <v>-2.519373866581405</v>
       </c>
       <c r="C348" t="n">
         <v>2</v>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>-0.3445557418810005</v>
+        <v>4.080085453531029</v>
       </c>
       <c r="B349" t="n">
-        <v>-1.304882016656426</v>
+        <v>-6.890245508024033</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>-0.1524081855450955</v>
+        <v>4.682461466500524</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.773349413348992</v>
+        <v>-7.908738608823377</v>
       </c>
       <c r="C350" t="n">
         <v>1</v>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>-1.38956934849615</v>
+        <v>0.804003561803746</v>
       </c>
       <c r="B351" t="n">
-        <v>-1.454784160212703</v>
+        <v>-7.216147161127321</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>-0.6679432013139901</v>
+        <v>3.066276835965082</v>
       </c>
       <c r="B352" t="n">
-        <v>0.9576015709707226</v>
+        <v>-1.971388953781855</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -4313,10 +4313,10 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>-0.1977886854301929</v>
+        <v>4.540195152483189</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.7906446054955809</v>
+        <v>-5.772244001114583</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>-1.121284917066251</v>
+        <v>1.645066072450581</v>
       </c>
       <c r="B354" t="n">
-        <v>0.02639983524351928</v>
+        <v>-3.995910937566647</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.02882408499828388</v>
+        <v>5.250618432080056</v>
       </c>
       <c r="B355" t="n">
-        <v>-1.194679015392949</v>
+        <v>-6.650653602020186</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>-1.077373483359431</v>
+        <v>1.782726914276992</v>
       </c>
       <c r="B356" t="n">
-        <v>0.1621972596786713</v>
+        <v>-3.700674298112123</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -4357,10 +4357,10 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>-0.467095416234007</v>
+        <v>3.695927768286758</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.6753222169934666</v>
+        <v>-5.521522055710588</v>
       </c>
       <c r="C357" t="n">
         <v>1</v>
@@ -4368,10 +4368,10 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>-0.3783293735327547</v>
+        <v>3.974206274186595</v>
       </c>
       <c r="B358" t="n">
-        <v>-1.640438047799395</v>
+        <v>-7.619776538494028</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>-0.2288625829183913</v>
+        <v>4.442779547344597</v>
       </c>
       <c r="B359" t="n">
-        <v>-1.448521937160407</v>
+        <v>-7.2025324869377</v>
       </c>
       <c r="C359" t="n">
         <v>1</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>-0.73125517397856</v>
+        <v>2.867795968478813</v>
       </c>
       <c r="B360" t="n">
-        <v>0.586895096046087</v>
+        <v>-2.777340424040016</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -4401,10 +4401,10 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1.162378424914612</v>
+        <v>8.804272492449034</v>
       </c>
       <c r="B361" t="n">
-        <v>0.3428867923738772</v>
+        <v>-3.307837904937261</v>
       </c>
       <c r="C361" t="n">
         <v>2</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>-0.3059613232785606</v>
+        <v>4.201077634977103</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.8111766996774685</v>
+        <v>-5.81688274527662</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -4423,10 +4423,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>-0.5029768960844756</v>
+        <v>3.58344055697929</v>
       </c>
       <c r="B363" t="n">
-        <v>-2.098017510445266</v>
+        <v>-8.614598225259421</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -4434,10 +4434,10 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1.555324621658345</v>
+        <v>10.03614537087495</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.3744925319065176</v>
+        <v>-4.867489435853013</v>
       </c>
       <c r="C364" t="n">
         <v>2</v>
@@ -4445,10 +4445,10 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>-0.7168682493422948</v>
+        <v>2.912898484828987</v>
       </c>
       <c r="B365" t="n">
-        <v>0.5603564590019026</v>
+        <v>-2.835037969109215</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1.486580987198583</v>
+        <v>9.820636429556364</v>
       </c>
       <c r="B366" t="n">
-        <v>0.4642323976855036</v>
+        <v>-3.044020907863892</v>
       </c>
       <c r="C366" t="n">
         <v>2</v>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1.349220088558574</v>
+        <v>9.390014713420523</v>
       </c>
       <c r="B367" t="n">
-        <v>0.2264906107821492</v>
+        <v>-3.560894379619449</v>
       </c>
       <c r="C367" t="n">
         <v>2</v>
@@ -4478,10 +4478,10 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1.56628535873372</v>
+        <v>10.0705069064811</v>
       </c>
       <c r="B368" t="n">
-        <v>0.5928205863836258</v>
+        <v>-2.764457839104021</v>
       </c>
       <c r="C368" t="n">
         <v>2</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1.24135006971713</v>
+        <v>9.051845896144176</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.07294607759824902</v>
+        <v>-4.211898490886939</v>
       </c>
       <c r="C369" t="n">
         <v>2</v>
@@ -4500,10 +4500,10 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>-0.6533079651414405</v>
+        <v>3.112157800483183</v>
       </c>
       <c r="B370" t="n">
-        <v>0.1380423744140092</v>
+        <v>-3.753189337934207</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1.105465070818336</v>
+        <v>8.625851075185194</v>
       </c>
       <c r="B371" t="n">
-        <v>0.05041885400273071</v>
+        <v>-3.943691284572778</v>
       </c>
       <c r="C371" t="n">
         <v>2</v>
@@ -4522,10 +4522,10 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1.710813872172041</v>
+        <v>10.52359884970201</v>
       </c>
       <c r="B372" t="n">
-        <v>0.4813454832139077</v>
+        <v>-3.006815416794239</v>
       </c>
       <c r="C372" t="n">
         <v>2</v>
@@ -4533,10 +4533,10 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>-0.7282446342791361</v>
+        <v>2.877233907402455</v>
       </c>
       <c r="B373" t="n">
-        <v>1.1378702149479</v>
+        <v>-1.579467613092061</v>
       </c>
       <c r="C373" t="n">
         <v>0</v>
@@ -4544,10 +4544,10 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>-0.4122428835353026</v>
+        <v>3.867888580999681</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.01480558261845529</v>
+        <v>-4.085495472380105</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -4555,10 +4555,10 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>-0.6341227387338374</v>
+        <v>3.172302828667283</v>
       </c>
       <c r="B375" t="n">
-        <v>0.7548990784080436</v>
+        <v>-2.412083635306093</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>1.672237674660684</v>
+        <v>10.40266379075287</v>
       </c>
       <c r="B376" t="n">
-        <v>0.2421565272992474</v>
+        <v>-3.526835172931829</v>
       </c>
       <c r="C376" t="n">
         <v>2</v>
@@ -4577,10 +4577,10 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>-0.8873449151087446</v>
+        <v>2.37845997212052</v>
       </c>
       <c r="B377" t="n">
-        <v>-1.548173002787576</v>
+        <v>-7.419183471713017</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>-0.5397416271584649</v>
+        <v>3.468184383314868</v>
       </c>
       <c r="B378" t="n">
-        <v>-1.182083828140881</v>
+        <v>-6.623270455594042</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -4599,10 +4599,10 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>-0.182669087715946</v>
+        <v>4.587594573857505</v>
       </c>
       <c r="B379" t="n">
-        <v>1.170924689220046</v>
+        <v>-1.507604012264309</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1.510454116583018</v>
+        <v>9.895477873131954</v>
       </c>
       <c r="B380" t="n">
-        <v>0.6527083543277614</v>
+        <v>-2.634256081406456</v>
       </c>
       <c r="C380" t="n">
         <v>2</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>-0.8581514440592551</v>
+        <v>2.469980504730311</v>
       </c>
       <c r="B381" t="n">
-        <v>-1.891280989990467</v>
+        <v>-8.165133179766284</v>
       </c>
       <c r="C381" t="n">
         <v>1</v>
@@ -4632,10 +4632,10 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1.427068975394272</v>
+        <v>9.634068309315454</v>
       </c>
       <c r="B382" t="n">
-        <v>0.2930692799637103</v>
+        <v>-3.416145960197803</v>
       </c>
       <c r="C382" t="n">
         <v>2</v>
@@ -4643,10 +4643,10 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1.943060235126873</v>
+        <v>11.25168324906242</v>
       </c>
       <c r="B383" t="n">
-        <v>0.652274673520458</v>
+        <v>-2.635198945121853</v>
       </c>
       <c r="C383" t="n">
         <v>2</v>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2.311700846399716</v>
+        <v>12.40735894888228</v>
       </c>
       <c r="B384" t="n">
-        <v>0.7828724331380577</v>
+        <v>-2.351266876231973</v>
       </c>
       <c r="C384" t="n">
         <v>2</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>-0.2390475291623312</v>
+        <v>4.410850089443983</v>
       </c>
       <c r="B385" t="n">
-        <v>0.7109875578318293</v>
+        <v>-2.507551497249605</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
@@ -4676,10 +4676,10 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>-0.8613811706750497</v>
+        <v>2.459855422325397</v>
       </c>
       <c r="B386" t="n">
-        <v>1.256963160726182</v>
+        <v>-1.320548114135656</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1.649887754362823</v>
+        <v>10.33259755553271</v>
       </c>
       <c r="B387" t="n">
-        <v>0.5562994130265958</v>
+        <v>-2.843858376601067</v>
       </c>
       <c r="C387" t="n">
         <v>2</v>
@@ -4698,10 +4698,10 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-1.276998827337856</v>
+        <v>1.156908292971333</v>
       </c>
       <c r="B388" t="n">
-        <v>1.496425112732807</v>
+        <v>-0.7999348382821287</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.7880128900582531</v>
+        <v>7.630649353127188</v>
       </c>
       <c r="B389" t="n">
-        <v>0.1848388388327016</v>
+        <v>-3.65144933107623</v>
       </c>
       <c r="C389" t="n">
         <v>2</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>-0.4066471509030555</v>
+        <v>3.88543101129093</v>
       </c>
       <c r="B390" t="n">
-        <v>0.2872513284340903</v>
+        <v>-3.428794745439931</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
@@ -4731,10 +4731,10 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>-0.7454636318753211</v>
+        <v>2.82325293924906</v>
       </c>
       <c r="B391" t="n">
-        <v>-1.503145158718393</v>
+        <v>-7.321288615310817</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -4742,10 +4742,10 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>-0.4265250792003606</v>
+        <v>3.823114386389951</v>
       </c>
       <c r="B392" t="n">
-        <v>-2.222492714965981</v>
+        <v>-8.885219271505107</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -4753,10 +4753,10 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>-0.4527673894225788</v>
+        <v>3.740845641971813</v>
       </c>
       <c r="B393" t="n">
-        <v>0.4779946839975197</v>
+        <v>-3.014100376021177</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>-0.3572202319450545</v>
+        <v>4.040382710615369</v>
       </c>
       <c r="B394" t="n">
-        <v>-1.255269976938476</v>
+        <v>-6.782384170125047</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>-0.6648473369071249</v>
+        <v>3.075982264926362</v>
       </c>
       <c r="B395" t="n">
-        <v>-1.12516185728595</v>
+        <v>-6.499516625532533</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -4786,10 +4786,10 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>-1.143112085181467</v>
+        <v>1.576638647432105</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.1707979001763758</v>
+        <v>-4.424637748517426</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>-0.5559530860253871</v>
+        <v>3.417362014595257</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.876269542290127</v>
+        <v>-5.95840083507427</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -4808,10 +4808,10 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>-0.767393033021624</v>
+        <v>2.754505017176994</v>
       </c>
       <c r="B398" t="n">
-        <v>0.3554117269347501</v>
+        <v>-3.280607494607161</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.6411894512802909</v>
+        <v>7.170362897509053</v>
       </c>
       <c r="B399" t="n">
-        <v>0.313798554909893</v>
+        <v>-3.37107852612167</v>
       </c>
       <c r="C399" t="n">
         <v>2</v>
@@ -4830,10 +4830,10 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.6101862742394182</v>
+        <v>7.073168998552459</v>
       </c>
       <c r="B400" t="n">
-        <v>1.046707618140577</v>
+        <v>-1.777663851623775</v>
       </c>
       <c r="C400" t="n">
         <v>2</v>
@@ -4841,10 +4841,10 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1.624814544597859</v>
+        <v>10.25399390103624</v>
       </c>
       <c r="B401" t="n">
-        <v>0.2587816163223679</v>
+        <v>-3.490690633120161</v>
       </c>
       <c r="C401" t="n">
         <v>2</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>-0.950181859147895</v>
+        <v>2.181468303117349</v>
       </c>
       <c r="B402" t="n">
-        <v>1.157890147413615</v>
+        <v>-1.535942357676729</v>
       </c>
       <c r="C402" t="n">
         <v>0</v>
@@ -4863,10 +4863,10 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>-0.8571267467385857</v>
+        <v>2.473192895760912</v>
       </c>
       <c r="B403" t="n">
-        <v>1.032915390565843</v>
+        <v>-1.80764947864648</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>-0.6535562247901213</v>
+        <v>3.111379514981117</v>
       </c>
       <c r="B404" t="n">
-        <v>1.656632911142613</v>
+        <v>-0.4516277020189792</v>
       </c>
       <c r="C404" t="n">
         <v>0</v>
@@ -4885,10 +4885,10 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.7067630136017103</v>
+        <v>7.375933771167894</v>
       </c>
       <c r="B405" t="n">
-        <v>-0.5418681289239314</v>
+        <v>-5.231380054512821</v>
       </c>
       <c r="C405" t="n">
         <v>2</v>
@@ -4896,10 +4896,10 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>-0.7520319692038591</v>
+        <v>2.802661426521796</v>
       </c>
       <c r="B406" t="n">
-        <v>-1.42803932333929</v>
+        <v>-7.158001317830887</v>
       </c>
       <c r="C406" t="n">
         <v>1</v>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2.121342928712952</v>
+        <v>11.81059339182845</v>
       </c>
       <c r="B407" t="n">
-        <v>1.464343123091576</v>
+        <v>-0.869684164148135</v>
       </c>
       <c r="C407" t="n">
         <v>2</v>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>-0.5435458057527517</v>
+        <v>3.456258413617682</v>
       </c>
       <c r="B408" t="n">
-        <v>-1.455372860322599</v>
+        <v>-7.217427051690897</v>
       </c>
       <c r="C408" t="n">
         <v>1</v>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-1.097513596487284</v>
+        <v>1.719588348905378</v>
       </c>
       <c r="B409" t="n">
-        <v>0.7575292882578641</v>
+        <v>-2.406365306550218</v>
       </c>
       <c r="C409" t="n">
         <v>0</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>-0.5277819300646802</v>
+        <v>3.505677624389882</v>
       </c>
       <c r="B410" t="n">
-        <v>-1.78995064489872</v>
+        <v>-7.944831280197191</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>-0.5430003386834321</v>
+        <v>3.457968434211691</v>
       </c>
       <c r="B411" t="n">
-        <v>0.5380764202898219</v>
+        <v>-2.883476912510623</v>
       </c>
       <c r="C411" t="n">
         <v>0</v>
@@ -4962,10 +4962,10 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>-0.3372191751501625</v>
+        <v>4.103085339142278</v>
       </c>
       <c r="B412" t="n">
-        <v>-1.306495000222386</v>
+        <v>-6.893752289168744</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -4973,10 +4973,10 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>-0.657515419758841</v>
+        <v>3.098967574255433</v>
       </c>
       <c r="B413" t="n">
-        <v>-1.086069196345559</v>
+        <v>-6.414525427125176</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>-0.3629317187569603</v>
+        <v>4.022477394932514</v>
       </c>
       <c r="B414" t="n">
-        <v>-2.079668402685986</v>
+        <v>-8.574705503181871</v>
       </c>
       <c r="C414" t="n">
         <v>1</v>
@@ -4995,10 +4995,10 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1.42537606660793</v>
+        <v>9.628761098209134</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.0499498036954099</v>
+        <v>-4.161902383410746</v>
       </c>
       <c r="C415" t="n">
         <v>2</v>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>-1.038193099177785</v>
+        <v>1.90555607775953</v>
       </c>
       <c r="B416" t="n">
-        <v>0.1517667705881795</v>
+        <v>-3.72335118288923</v>
       </c>
       <c r="C416" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>-0.7845730920138095</v>
+        <v>2.700646120214484</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.8321701913154588</v>
+        <v>-5.862524611809786</v>
       </c>
       <c r="C417" t="n">
         <v>1</v>
@@ -5028,10 +5028,10 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>-0.8572834304719338</v>
+        <v>2.47270169761928</v>
       </c>
       <c r="B418" t="n">
-        <v>0.2820487983947317</v>
+        <v>-3.440105545271889</v>
       </c>
       <c r="C418" t="n">
         <v>0</v>
@@ -5039,10 +5039,10 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>-1.014737728174753</v>
+        <v>1.979087863106969</v>
       </c>
       <c r="B419" t="n">
-        <v>0.6238336134138113</v>
+        <v>-2.697032540591996</v>
       </c>
       <c r="C419" t="n">
         <v>0</v>
@@ -5050,10 +5050,10 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>-0.6233662292565918</v>
+        <v>3.206024117742876</v>
       </c>
       <c r="B420" t="n">
-        <v>0.3111371842486094</v>
+        <v>-3.376864601473604</v>
       </c>
       <c r="C420" t="n">
         <v>0</v>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>-0.5896951051676304</v>
+        <v>3.311581939386219</v>
       </c>
       <c r="B421" t="n">
-        <v>0.5855849697240153</v>
+        <v>-2.780188764457356</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -5072,10 +5072,10 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>-0.9108658055735674</v>
+        <v>2.304722785502734</v>
       </c>
       <c r="B422" t="n">
-        <v>-2.032100122005166</v>
+        <v>-8.471287493663278</v>
       </c>
       <c r="C422" t="n">
         <v>1</v>
@@ -5083,10 +5083,10 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>-0.553665470686712</v>
+        <v>3.424533610389637</v>
       </c>
       <c r="B423" t="n">
-        <v>-1.350723377162718</v>
+        <v>-6.989909027271146</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5094,10 +5094,10 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1.468352352606122</v>
+        <v>9.76349028397391</v>
       </c>
       <c r="B424" t="n">
-        <v>0.280754173526567</v>
+        <v>-3.442920184040047</v>
       </c>
       <c r="C424" t="n">
         <v>2</v>
@@ -5105,10 +5105,10 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>-0.8175625790204989</v>
+        <v>2.597225207495413</v>
       </c>
       <c r="B425" t="n">
-        <v>1.014970804954538</v>
+        <v>-1.846662730733714</v>
       </c>
       <c r="C425" t="n">
         <v>0</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>-1.063710921295061</v>
+        <v>1.825558578755181</v>
       </c>
       <c r="B426" t="n">
-        <v>0.1766984016054624</v>
+        <v>-3.669147423220888</v>
       </c>
       <c r="C426" t="n">
         <v>0</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>-0.6816627589370218</v>
+        <v>3.02326649236113</v>
       </c>
       <c r="B427" t="n">
-        <v>-1.790537833538031</v>
+        <v>-7.946107884678588</v>
       </c>
       <c r="C427" t="n">
         <v>1</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.928384543198991</v>
+        <v>8.070709681581411</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.003541250340671763</v>
+        <v>-4.061005732451495</v>
       </c>
       <c r="C428" t="n">
         <v>2</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>-0.7134995342239016</v>
+        <v>2.923459291432742</v>
       </c>
       <c r="B429" t="n">
-        <v>-1.674123950905293</v>
+        <v>-7.69301292623366</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>-0.3239095477503965</v>
+        <v>4.144810565525927</v>
       </c>
       <c r="B430" t="n">
-        <v>0.70577920088896</v>
+        <v>-2.518874965329272</v>
       </c>
       <c r="C430" t="n">
         <v>0</v>
@@ -5171,10 +5171,10 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>-0.7094973534053798</v>
+        <v>2.936005991326389</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.3217712852939237</v>
+        <v>-4.752868383631302</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>-1.243540110007123</v>
+        <v>1.261800226697135</v>
       </c>
       <c r="B432" t="n">
-        <v>-1.591431862692263</v>
+        <v>-7.51323238669073</v>
       </c>
       <c r="C432" t="n">
         <v>1</v>
@@ -5193,10 +5193,10 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.9793871667912891</v>
+        <v>8.230601161006755</v>
       </c>
       <c r="B433" t="n">
-        <v>0.1652057911487661</v>
+        <v>-3.694133461828824</v>
       </c>
       <c r="C433" t="n">
         <v>2</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>-0.1844942415772886</v>
+        <v>4.581872778967075</v>
       </c>
       <c r="B434" t="n">
-        <v>-1.644363694225921</v>
+        <v>-7.628311270750366</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>-0.7771068568818219</v>
+        <v>2.724052511825509</v>
       </c>
       <c r="B435" t="n">
-        <v>0.690773376570381</v>
+        <v>-2.551499068197864</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1.473237410319814</v>
+        <v>9.778804772717942</v>
       </c>
       <c r="B436" t="n">
-        <v>1.185494406369482</v>
+        <v>-1.475928048254722</v>
       </c>
       <c r="C436" t="n">
         <v>2</v>
@@ -5237,10 +5237,10 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>-0.7715728115351704</v>
+        <v>2.741401554587628</v>
       </c>
       <c r="B437" t="n">
-        <v>0.5812875904928495</v>
+        <v>-2.789531679523296</v>
       </c>
       <c r="C437" t="n">
         <v>0</v>
@@ -5248,10 +5248,10 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>-0.5964416511204441</v>
+        <v>3.290431748720942</v>
       </c>
       <c r="B438" t="n">
-        <v>2.075988969804521</v>
+        <v>0.460092634424949</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -5259,10 +5259,10 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1.367450197905206</v>
+        <v>9.447165482306831</v>
       </c>
       <c r="B439" t="n">
-        <v>1.555124396673891</v>
+        <v>-0.6723169589207392</v>
       </c>
       <c r="C439" t="n">
         <v>2</v>
@@ -5270,10 +5270,10 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>-0.6195400914786183</v>
+        <v>3.218018928729379</v>
       </c>
       <c r="B440" t="n">
-        <v>-1.138401627490233</v>
+        <v>-6.528301157187103</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1.680267009876788</v>
+        <v>10.42783548185581</v>
       </c>
       <c r="B441" t="n">
-        <v>0.7953722410586871</v>
+        <v>-2.324091093630323</v>
       </c>
       <c r="C441" t="n">
         <v>2</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>-0.6126081401076217</v>
+        <v>3.239750359035262</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.235842371760442</v>
+        <v>-4.566050675054522</v>
       </c>
       <c r="C442" t="n">
         <v>1</v>
@@ -5303,10 +5303,10 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>-0.3663560313093386</v>
+        <v>4.011742292276006</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.8144667617735524</v>
+        <v>-5.824035656172278</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -5314,10 +5314,10 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1.296128242681399</v>
+        <v>9.223573593634564</v>
       </c>
       <c r="B444" t="n">
-        <v>0.2489997977225607</v>
+        <v>-3.511957245967741</v>
       </c>
       <c r="C444" t="n">
         <v>2</v>
@@ -5325,10 +5325,10 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1.632803508309831</v>
+        <v>10.27903902885542</v>
       </c>
       <c r="B445" t="n">
-        <v>0.4042116605990663</v>
+        <v>-3.174511753243992</v>
       </c>
       <c r="C445" t="n">
         <v>2</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1.315001644030702</v>
+        <v>9.282741060932935</v>
       </c>
       <c r="B446" t="n">
-        <v>0.6534648592500134</v>
+        <v>-2.632611367068865</v>
       </c>
       <c r="C446" t="n">
         <v>2</v>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>-0.7684246212656523</v>
+        <v>2.751271023337501</v>
       </c>
       <c r="B447" t="n">
-        <v>-1.64814691192977</v>
+        <v>-7.636536349288159</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1.506898909968682</v>
+        <v>9.884332422070985</v>
       </c>
       <c r="B448" t="n">
-        <v>0.8700166763782438</v>
+        <v>-2.161806924181658</v>
       </c>
       <c r="C448" t="n">
         <v>2</v>
@@ -5369,10 +5369,10 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>-0.8489859496056599</v>
+        <v>2.498714016158367</v>
       </c>
       <c r="B449" t="n">
-        <v>0.8315489252676744</v>
+        <v>-2.245439508617609</v>
       </c>
       <c r="C449" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>-1.229319818165758</v>
+        <v>1.306380354938209</v>
       </c>
       <c r="B450" t="n">
-        <v>-1.306349439053805</v>
+        <v>-6.893435825212039</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -5391,10 +5391,10 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>-1.273777027108754</v>
+        <v>1.167008526425241</v>
       </c>
       <c r="B451" t="n">
-        <v>-1.808460193808012</v>
+        <v>-7.985072816739794</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -5402,10 +5402,10 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>-0.5765233559977775</v>
+        <v>3.352874922237897</v>
       </c>
       <c r="B452" t="n">
-        <v>0.3376179885344652</v>
+        <v>-3.319292790373884</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0.9827757483870526</v>
+        <v>8.241224248337147</v>
       </c>
       <c r="B453" t="n">
-        <v>0.1782396932378853</v>
+        <v>-3.665796507223264</v>
       </c>
       <c r="C453" t="n">
         <v>2</v>
@@ -5424,10 +5424,10 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>-0.2686087654629019</v>
+        <v>4.318176625358614</v>
       </c>
       <c r="B454" t="n">
-        <v>-1.675616975328935</v>
+        <v>-7.696258904684967</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>-0.6464540473491741</v>
+        <v>3.133644598190402</v>
       </c>
       <c r="B455" t="n">
-        <v>-1.103446848348782</v>
+        <v>-6.452306111113713</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -5446,10 +5446,10 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>-1.133546437751239</v>
+        <v>1.606626624746891</v>
       </c>
       <c r="B456" t="n">
-        <v>-1.469990961763061</v>
+        <v>-7.249208207794842</v>
       </c>
       <c r="C456" t="n">
         <v>1</v>
@@ -5457,10 +5457,10 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>-0.5876144881993492</v>
+        <v>3.318104602373819</v>
       </c>
       <c r="B457" t="n">
-        <v>1.036687386369044</v>
+        <v>-1.799448797598176</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -5468,10 +5468,10 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>-0.4096806887352448</v>
+        <v>3.875920974008166</v>
       </c>
       <c r="B458" t="n">
-        <v>-1.579053098367012</v>
+        <v>-7.486319764487559</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -5479,10 +5479,10 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1.493438686858642</v>
+        <v>9.84213508328968</v>
       </c>
       <c r="B459" t="n">
-        <v>0.5797171529723651</v>
+        <v>-2.792945961480039</v>
       </c>
       <c r="C459" t="n">
         <v>2</v>
@@ -5490,10 +5490,10 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-0.4435974183187967</v>
+        <v>3.769593187544994</v>
       </c>
       <c r="B460" t="n">
-        <v>0.3173433491648283</v>
+        <v>-3.363371803054293</v>
       </c>
       <c r="C460" t="n">
         <v>0</v>
@@ -5501,10 +5501,10 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1.178297995476641</v>
+        <v>8.854179801322521</v>
       </c>
       <c r="B461" t="n">
-        <v>0.1265457845147368</v>
+        <v>-3.778184028232393</v>
       </c>
       <c r="C461" t="n">
         <v>2</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>-0.936513585704502</v>
+        <v>2.224317872573307</v>
       </c>
       <c r="B462" t="n">
-        <v>1.090984910252328</v>
+        <v>-1.681400767242066</v>
       </c>
       <c r="C462" t="n">
         <v>0</v>
@@ -5523,10 +5523,10 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>-0.5507647361740823</v>
+        <v>3.433627313810701</v>
       </c>
       <c r="B463" t="n">
-        <v>1.206309335225353</v>
+        <v>-1.430674394354777</v>
       </c>
       <c r="C463" t="n">
         <v>0</v>
@@ -5534,10 +5534,10 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>-0.8848789524234454</v>
+        <v>2.386190680742728</v>
       </c>
       <c r="B464" t="n">
-        <v>0.6797816874095688</v>
+        <v>-2.575396055812063</v>
       </c>
       <c r="C464" t="n">
         <v>0</v>
@@ -5545,10 +5545,10 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>-0.4291074680100446</v>
+        <v>3.815018685852417</v>
       </c>
       <c r="B465" t="n">
-        <v>0.127639966940288</v>
+        <v>-3.775805170580169</v>
       </c>
       <c r="C465" t="n">
         <v>0</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1.677303427681915</v>
+        <v>10.41854475310184</v>
       </c>
       <c r="B466" t="n">
-        <v>0.9953950484439107</v>
+        <v>-1.889222304974664</v>
       </c>
       <c r="C466" t="n">
         <v>2</v>
@@ -5567,10 +5567,10 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1.784035718632818</v>
+        <v>10.75314683237945</v>
       </c>
       <c r="B467" t="n">
-        <v>0.6393546864319363</v>
+        <v>-2.663288237578445</v>
       </c>
       <c r="C467" t="n">
         <v>2</v>
@@ -5578,10 +5578,10 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>-0.9701646637189749</v>
+        <v>2.118822894687419</v>
       </c>
       <c r="B468" t="n">
-        <v>0.4107859040890692</v>
+        <v>-3.160218716663824</v>
       </c>
       <c r="C468" t="n">
         <v>0</v>
@@ -5589,10 +5589,10 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>-1.030564207471111</v>
+        <v>1.929472392165366</v>
       </c>
       <c r="B469" t="n">
-        <v>-1.51620082306632</v>
+        <v>-7.349672883156551</v>
       </c>
       <c r="C469" t="n">
         <v>1</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>-0.3912914814142479</v>
+        <v>3.933570509599068</v>
       </c>
       <c r="B470" t="n">
-        <v>0.5204011427770856</v>
+        <v>-2.921904662933669</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>-0.75510965369982</v>
+        <v>2.793012990959003</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.8650155364320864</v>
+        <v>-5.933933545773684</v>
       </c>
       <c r="C471" t="n">
         <v>1</v>
@@ -5622,10 +5622,10 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>-0.9599256343384001</v>
+        <v>2.150921901370419</v>
       </c>
       <c r="B472" t="n">
-        <v>0.6123341006160112</v>
+        <v>-2.722033585552226</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -5633,10 +5633,10 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>-0.6349936578155994</v>
+        <v>3.169572527152682</v>
       </c>
       <c r="B473" t="n">
-        <v>-1.044814817256674</v>
+        <v>-6.324834445903351</v>
       </c>
       <c r="C473" t="n">
         <v>1</v>
@@ -5644,10 +5644,10 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>-1.01997559460169</v>
+        <v>1.962667331121598</v>
       </c>
       <c r="B474" t="n">
-        <v>-1.614736604190503</v>
+        <v>-7.563899132337163</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -5655,10 +5655,10 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>-0.384854543145983</v>
+        <v>3.953750090769436</v>
       </c>
       <c r="B475" t="n">
-        <v>0.9847968009657641</v>
+        <v>-1.91226391259403</v>
       </c>
       <c r="C475" t="n">
         <v>0</v>
@@ -5666,10 +5666,10 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1.374975574044673</v>
+        <v>9.470757278952235</v>
       </c>
       <c r="B476" t="n">
-        <v>0.7158296265649516</v>
+        <v>-2.497024374907476</v>
       </c>
       <c r="C476" t="n">
         <v>2</v>
@@ -5677,10 +5677,10 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1.515220168701365</v>
+        <v>9.91041928340748</v>
       </c>
       <c r="B477" t="n">
-        <v>0.5410517822861477</v>
+        <v>-2.8770081898481</v>
       </c>
       <c r="C477" t="n">
         <v>2</v>
@@ -5688,10 +5688,10 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1.477664556077162</v>
+        <v>9.792683723150621</v>
       </c>
       <c r="B478" t="n">
-        <v>1.029824727769018</v>
+        <v>-1.814368876320016</v>
       </c>
       <c r="C478" t="n">
         <v>2</v>
@@ -5699,10 +5699,10 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1.091415466462879</v>
+        <v>8.581806046370753</v>
       </c>
       <c r="B479" t="n">
-        <v>0.6812250409611554</v>
+        <v>-2.572258066605804</v>
       </c>
       <c r="C479" t="n">
         <v>2</v>
@@ -5710,10 +5710,10 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>-1.081630944144836</v>
+        <v>1.769379920423984</v>
       </c>
       <c r="B480" t="n">
-        <v>1.767414263599576</v>
+        <v>-0.2107784049894952</v>
       </c>
       <c r="C480" t="n">
         <v>0</v>
@@ -5721,10 +5721,10 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>-1.07166089845626</v>
+        <v>1.800635672438383</v>
       </c>
       <c r="B481" t="n">
-        <v>0.4216354294868921</v>
+        <v>-3.136630806720367</v>
       </c>
       <c r="C481" t="n">
         <v>0</v>
@@ -5732,10 +5732,10 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-0.9313419158956967</v>
+        <v>2.24053088042638</v>
       </c>
       <c r="B482" t="n">
-        <v>-1.368869654691217</v>
+        <v>-7.029360776952021</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1.255699677997645</v>
+        <v>9.096831426996205</v>
       </c>
       <c r="B483" t="n">
-        <v>0.3813336045537155</v>
+        <v>-3.224250843747193</v>
       </c>
       <c r="C483" t="n">
         <v>2</v>
@@ -5754,10 +5754,10 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>1.329948387372308</v>
+        <v>9.329598589764867</v>
       </c>
       <c r="B484" t="n">
-        <v>0.558100917448167</v>
+        <v>-2.83994173301523</v>
       </c>
       <c r="C484" t="n">
         <v>2</v>
@@ -5765,10 +5765,10 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-0.9020640778538505</v>
+        <v>2.332315900669796</v>
       </c>
       <c r="B485" t="n">
-        <v>0.3566104733955255</v>
+        <v>-3.278001304702534</v>
       </c>
       <c r="C485" t="n">
         <v>0</v>
@@ -5776,10 +5776,10 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-0.2230198642122206</v>
+        <v>4.461096270524634</v>
       </c>
       <c r="B486" t="n">
-        <v>0.8167874999901863</v>
+        <v>-2.277532264504638</v>
       </c>
       <c r="C486" t="n">
         <v>0</v>
@@ -5787,10 +5787,10 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1.101347702747054</v>
+        <v>8.612943267196364</v>
       </c>
       <c r="B487" t="n">
-        <v>1.113562966725674</v>
+        <v>-1.632313904613179</v>
       </c>
       <c r="C487" t="n">
         <v>2</v>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>-0.7357585612286046</v>
+        <v>2.853678003575854</v>
       </c>
       <c r="B488" t="n">
-        <v>1.408554391900016</v>
+        <v>-0.9909742223722746</v>
       </c>
       <c r="C488" t="n">
         <v>0</v>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>-0.9006363641916009</v>
+        <v>2.33679173413824</v>
       </c>
       <c r="B489" t="n">
-        <v>0.3764218828098068</v>
+        <v>-3.234929398422579</v>
       </c>
       <c r="C489" t="n">
         <v>0</v>
@@ -5820,10 +5820,10 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1.161377681072269</v>
+        <v>8.801135194753192</v>
       </c>
       <c r="B490" t="n">
-        <v>0.5509142917352997</v>
+        <v>-2.855566147346428</v>
       </c>
       <c r="C490" t="n">
         <v>2</v>
@@ -5831,10 +5831,10 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>-0.9970784365514478</v>
+        <v>2.034449137966568</v>
       </c>
       <c r="B491" t="n">
-        <v>-1.432896232136094</v>
+        <v>-7.168560703896342</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>-1.196517583858652</v>
+        <v>1.409214236852707</v>
       </c>
       <c r="B492" t="n">
-        <v>0.4926553426684236</v>
+        <v>-2.982226696412073</v>
       </c>
       <c r="C492" t="n">
         <v>0</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1.141290861277924</v>
+        <v>8.738163702158188</v>
       </c>
       <c r="B493" t="n">
-        <v>0.9059146490297979</v>
+        <v>-2.083761284855587</v>
       </c>
       <c r="C493" t="n">
         <v>2</v>
@@ -5864,10 +5864,10 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>-0.8504500161726695</v>
+        <v>2.494124217577658</v>
       </c>
       <c r="B494" t="n">
-        <v>0.7193326357641988</v>
+        <v>-2.489408496563201</v>
       </c>
       <c r="C494" t="n">
         <v>0</v>
@@ -5875,10 +5875,10 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>-0.7379049621962523</v>
+        <v>2.846949110001662</v>
       </c>
       <c r="B495" t="n">
-        <v>0.1944008485119726</v>
+        <v>-3.630660603927081</v>
       </c>
       <c r="C495" t="n">
         <v>0</v>
@@ -5886,10 +5886,10 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>-0.3496169347021156</v>
+        <v>4.064218787253351</v>
       </c>
       <c r="B496" t="n">
-        <v>-1.573904800503468</v>
+        <v>-7.475126870612983</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>-0.2988754404701666</v>
+        <v>4.223291635071008</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.6609882227520041</v>
+        <v>-5.490358575936119</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>-1.033225472357012</v>
+        <v>1.921129417828379</v>
       </c>
       <c r="B498" t="n">
-        <v>1.206475601518424</v>
+        <v>-1.430312915469408</v>
       </c>
       <c r="C498" t="n">
         <v>0</v>
@@ -5919,10 +5919,10 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>-0.9420561672835627</v>
+        <v>2.206942069014733</v>
       </c>
       <c r="B499" t="n">
-        <v>1.630631089996153</v>
+        <v>-0.5081581577835828</v>
       </c>
       <c r="C499" t="n">
         <v>0</v>
@@ -5930,10 +5930,10 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>-0.853359438041479</v>
+        <v>2.485003279592291</v>
       </c>
       <c r="B500" t="n">
-        <v>1.236101750755148</v>
+        <v>-1.365902822442898</v>
       </c>
       <c r="C500" t="n">
         <v>0</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1.400900983117856</v>
+        <v>9.552032549113916</v>
       </c>
       <c r="B501" t="n">
-        <v>0.1416168789586435</v>
+        <v>-3.745418021844359</v>
       </c>
       <c r="C501" t="n">
         <v>2</v>
